--- a/Ing_economica/labora7/LAB7ALUM.xlsx
+++ b/Ing_economica/labora7/LAB7ALUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\labora7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C15C061-2FA0-47A9-86E9-B5F5701E342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB4A02-888F-41F0-8C70-960B5D1E818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{60E7E206-0700-476E-8277-533BB3481F34}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t xml:space="preserve">                   inversión inicial</t>
   </si>
   <si>
-    <t>Siendo que TIR es mayor a la TMAR se justifica el gasto</t>
-  </si>
-  <si>
     <t>Tmar</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Siendo que TIR es mayor a la TMAR se justifica el gasto. Compro B</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,7 +420,6 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -534,19 +533,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -558,19 +557,19 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ ">
-                  <c:v>-24792.180061340332</c:v>
+                  <c:v>-30400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24652.673807044499</c:v>
+                  <c:v>-27940.099719964484</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-26028.54938271605</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-24516.193410594868</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-24382.652975312682</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24251.969566269589</c:v>
+                  <c:v>-23300.291545189506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,19 +626,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,19 +650,19 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-24257.259368896484</c:v>
+                  <c:v>-22600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-24292.33568821639</c:v>
+                  <c:v>-23535.892357079436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24325.933965897551</c:v>
+                  <c:v>-24106.481481481482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-24358.124242077472</c:v>
+                  <c:v>-24465.985084555865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-24388.972789924457</c:v>
+                  <c:v>-24698.458975426904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -720,19 +719,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,19 +743,19 @@
                 <c:formatCode>_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* "-"_ ;_-@_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>534.92069244384766</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360.33811882810733</c:v>
+                  <c:v>4404.2073628850449</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>190.25944469731439</c:v>
+                  <c:v>1922.0679012345681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.528733235210893</c:v>
+                  <c:v>50.208326039004533</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-137.003223654865</c:v>
+                  <c:v>-1398.1674302373995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3210,11 +3209,11 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>D4</f>
+        <f t="shared" ref="B11:C13" si="0">D4</f>
         <v>A</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>B</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3240,11 +3239,11 @@
         <v>0</v>
       </c>
       <c r="B12" s="6">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>-15000</v>
       </c>
       <c r="C12" s="6">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>-25000</v>
       </c>
       <c r="D12" s="6">
@@ -3252,19 +3251,19 @@
         <v>-10000</v>
       </c>
       <c r="E12" s="7">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8">
         <f>NPV($E12,B$13:B$16)+$B$12</f>
-        <v>-24792.180061340332</v>
+        <v>-30400</v>
       </c>
       <c r="G12" s="6">
         <f>NPV($E12,C$13:C$16)+$C$12</f>
-        <v>-24257.259368896484</v>
+        <v>-22600</v>
       </c>
       <c r="H12" s="6">
         <f>NPV($E12,D$13:D$16)+$D$12</f>
-        <v>534.92069244384766</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3272,11 +3271,11 @@
         <v>1</v>
       </c>
       <c r="B13" s="10">
-        <f>D6</f>
+        <f t="shared" si="0"/>
         <v>-1600</v>
       </c>
       <c r="C13" s="10">
-        <f>E6</f>
+        <f t="shared" si="0"/>
         <v>-400</v>
       </c>
       <c r="D13" s="10">
@@ -3284,19 +3283,19 @@
         <v>1200</v>
       </c>
       <c r="E13" s="11">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="10">
         <f>NPV($E13,B$13:B$16)+$B$12</f>
-        <v>-24652.673807044499</v>
+        <v>-27940.099719964484</v>
       </c>
       <c r="G13" s="10">
         <f>NPV($E13,C$13:C$16)+$C$12</f>
-        <v>-24292.33568821639</v>
+        <v>-23535.892357079436</v>
       </c>
       <c r="H13" s="10">
         <f>NPV($E13,D$13:D$16)+$D$12</f>
-        <v>360.33811882810733</v>
+        <v>4404.2073628850449</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3312,23 +3311,23 @@
         <v>-400</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" ref="D14:D15" si="0">C14-B14</f>
+        <f t="shared" ref="D14:D15" si="1">C14-B14</f>
         <v>13200</v>
       </c>
       <c r="E14" s="11">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F14" s="10">
         <f>NPV($E14,B$13:B$16)+$B$12</f>
-        <v>-24516.193410594868</v>
+        <v>-26028.54938271605</v>
       </c>
       <c r="G14" s="10">
         <f>NPV($E14,C$13:C$16)+$C$12</f>
-        <v>-24325.933965897551</v>
+        <v>-24106.481481481482</v>
       </c>
       <c r="H14" s="10">
         <f>NPV($E14,D$13:D$16)+$D$12</f>
-        <v>190.25944469731439</v>
+        <v>1922.0679012345681</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3344,23 +3343,23 @@
         <v>-400</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
       <c r="E15" s="11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="10">
         <f>NPV($E15,B$13:B$16)+$B$12</f>
-        <v>-24382.652975312682</v>
+        <v>-24516.193410594868</v>
       </c>
       <c r="G15" s="10">
         <f>NPV($E15,C$13:C$16)+$C$12</f>
-        <v>-24358.124242077472</v>
+        <v>-24465.985084555865</v>
       </c>
       <c r="H15" s="10">
         <f>NPV($E15,D$13:D$16)+$D$12</f>
-        <v>24.528733235210893</v>
+        <v>50.208326039004533</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -3372,27 +3371,27 @@
         <v>1400</v>
       </c>
       <c r="C16" s="13">
-        <f>+E7</f>
-        <v>4000</v>
+        <f>+E7+E6</f>
+        <v>3600</v>
       </c>
       <c r="D16" s="13">
         <f>C16-B16</f>
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="E16" s="14">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="F16" s="13">
         <f>NPV($E16,B$13:B$16)+$B$12</f>
-        <v>-24251.969566269589</v>
+        <v>-23300.291545189506</v>
       </c>
       <c r="G16" s="13">
         <f>NPV($E16,C$13:C$16)+$C$12</f>
-        <v>-24388.972789924457</v>
+        <v>-24698.458975426904</v>
       </c>
       <c r="H16" s="13">
         <f>NPV($E16,D$13:D$16)+$D$12</f>
-        <v>-137.003223654865</v>
+        <v>-1398.1674302373995</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -3401,12 +3400,12 @@
       </c>
       <c r="D17" s="27">
         <f>IRR(D12:D16)</f>
-        <v>0.31150213708367858</v>
+        <v>0.30308162699890961</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -3423,7 +3422,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3439,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="19">
         <v>0.2</v>
@@ -3536,7 +3535,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="27">
         <f>IRR(B2:B12)</f>
@@ -3545,7 +3544,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3602,13 +3601,13 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M1" s="19">
         <v>0.11</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -3968,29 +3967,29 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4069,7 +4068,7 @@
   <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4098,10 +4097,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
         <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4147,7 +4146,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4239,9 +4238,9 @@
       <c r="A18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="31">
-        <f>B7-D13</f>
-        <v>149998.29999999999</v>
+      <c r="B18" s="30">
+        <f>-(D13*B14-B7)</f>
+        <v>26496.850466919728</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
